--- a/src/test/java/com/quiksilver/config/TestData.xlsx
+++ b/src/test/java/com/quiksilver/config/TestData.xlsx
@@ -260,7 +260,7 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="14">
+  <cellStyleXfs count="16">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
@@ -275,8 +275,10 @@
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="8">
+  <cellXfs count="9">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -297,8 +299,11 @@
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" wrapText="1"/>
+    </xf>
   </cellXfs>
-  <cellStyles count="14">
+  <cellStyles count="16">
     <cellStyle name="Followed Hyperlink" xfId="2" builtinId="9" hidden="1"/>
     <cellStyle name="Followed Hyperlink" xfId="4" builtinId="9" hidden="1"/>
     <cellStyle name="Followed Hyperlink" xfId="6" builtinId="9" hidden="1"/>
@@ -307,11 +312,13 @@
     <cellStyle name="Followed Hyperlink" xfId="11" builtinId="9" hidden="1"/>
     <cellStyle name="Followed Hyperlink" xfId="12" builtinId="9" hidden="1"/>
     <cellStyle name="Followed Hyperlink" xfId="13" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="15" builtinId="9" hidden="1"/>
     <cellStyle name="Hyperlink" xfId="1" builtinId="8" hidden="1"/>
     <cellStyle name="Hyperlink" xfId="3" builtinId="8" hidden="1"/>
     <cellStyle name="Hyperlink" xfId="5" builtinId="8" hidden="1"/>
     <cellStyle name="Hyperlink" xfId="7" builtinId="8" hidden="1"/>
     <cellStyle name="Hyperlink" xfId="9" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="14" builtinId="8" hidden="1"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
@@ -647,7 +654,7 @@
   <dimension ref="A1:O3"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="150" workbookViewId="0">
-      <selection activeCell="N18" sqref="N18"/>
+      <selection activeCell="I9" sqref="I9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="14" x14ac:dyDescent="0"/>
@@ -658,7 +665,7 @@
     <col min="6" max="6" width="16" customWidth="1"/>
     <col min="7" max="8" width="9" customWidth="1"/>
     <col min="9" max="9" width="16" customWidth="1"/>
-    <col min="11" max="11" width="8.83203125" style="7"/>
+    <col min="11" max="11" width="17" style="7" customWidth="1"/>
     <col min="14" max="14" width="17" customWidth="1"/>
   </cols>
   <sheetData>
@@ -736,7 +743,7 @@
       <c r="J2" s="3" t="s">
         <v>37</v>
       </c>
-      <c r="K2" s="7">
+      <c r="K2" s="8">
         <v>94108</v>
       </c>
       <c r="L2" t="s">
@@ -779,7 +786,7 @@
       <c r="J3" s="3" t="s">
         <v>37</v>
       </c>
-      <c r="K3" s="7">
+      <c r="K3" s="8">
         <v>94132</v>
       </c>
       <c r="L3" t="s">
